--- a/biology/Médecine/Trisomie_9/Trisomie_9.xlsx
+++ b/biology/Médecine/Trisomie_9/Trisomie_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La trisomie 9 est une maladie chromosomique congénitale provoquée par la présence d'un chromosome surnuméraire pour la 9e paire.
 </t>
@@ -511,11 +523,13 @@
           <t>Formes et fréquence de la trisomie 9</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un syndrome rare avec une prévalence de moins de 1 sur 1 million.
-La forme complète et homogène est extrêmement rare, provoquant dans 80% des cas un avortement spontané, et conduit sinon à un décès dans les heures qui suivent la naissance[1].
-Les formes en mosaïque sont comparativement moins rares (200 cas décrits dans la littérature)[1] et peuvent être viables, les conséquences dépendant de la proportion de cellules affectées[2]. Le syndrome a été décrit pour la première fois en 1970 par la généticienne française Marie-Odile Rethoré[3].
+La forme complète et homogène est extrêmement rare, provoquant dans 80% des cas un avortement spontané, et conduit sinon à un décès dans les heures qui suivent la naissance.
+Les formes en mosaïque sont comparativement moins rares (200 cas décrits dans la littérature) et peuvent être viables, les conséquences dépendant de la proportion de cellules affectées. Le syndrome a été décrit pour la première fois en 1970 par la généticienne française Marie-Odile Rethoré.
 </t>
         </is>
       </c>
@@ -546,10 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Effets très fréquents
-Il est très fréquemment observé : un retard global de développement, une déficience intellectuelle, une microphtalmie, une cryptorchidie.
-Effets fréquents
-On observe souvent : nez bulbeux[4].
+          <t>Effets très fréquents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très fréquemment observé : un retard global de développement, une déficience intellectuelle, une microphtalmie, une cryptorchidie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trisomie_9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trisomie_9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Effets de la trisomie 9</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Effets fréquents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On observe souvent : nez bulbeux.
 </t>
         </is>
       </c>
